--- a/files_excel/FORMATO_INGRESO_ESTUDIANTES.xlsx
+++ b/files_excel/FORMATO_INGRESO_ESTUDIANTES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\seguimiento_graduados\files_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\seg_graduados\files_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>PROMEDIO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>NOTA</t>
   </si>
@@ -60,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -156,21 +153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -190,21 +172,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -219,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,31 +200,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,16 +531,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -589,61 +550,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="11" style="13"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="4" max="5" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H1:H2"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
